--- a/datasets/E162525-time-series-mantto.xlsx
+++ b/datasets/E162525-time-series-mantto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Documents\Maestria\Tarea\proyecto-seminario\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9D019-B5E5-439C-B5E4-AE55EC376B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBD3AF-40DF-4F9F-AE33-4817AFC8717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{4C3E62D0-0761-4DD2-93FE-9040BD31EA18}"/>
   </bookViews>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67287784-9177-428E-9653-618866E723EF}">
   <dimension ref="A1:B2045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2007" workbookViewId="0">
+      <selection activeCell="B2045" sqref="B2045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
